--- a/data/Fabio Henrique.xlsx
+++ b/data/Fabio Henrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,77 +436,275 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>3/9/2022</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>14/9/2022</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>19/9/2022</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>23/9/2022</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>27/9/2022</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>29/9/2022</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>botas</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>capacete</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>não</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>sim</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>colete</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>sim</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>não</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>luvas</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sim</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>mascara</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>não</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>pa</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
